--- a/backtesting_20220203.xlsx
+++ b/backtesting_20220203.xlsx
@@ -733,19 +733,19 @@
         <v>1270</v>
       </c>
       <c r="D8" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E8" t="n">
         <v>1205</v>
       </c>
-      <c r="E8" t="n">
-        <v>1250</v>
-      </c>
       <c r="F8" t="n">
-        <v>36983635.82155032</v>
+        <v>80890515.87205131</v>
       </c>
       <c r="G8" t="n">
-        <v>45778133448.78484</v>
+        <v>98664227056.58438</v>
       </c>
       <c r="H8" t="n">
-        <v>32.5</v>
+        <v>47.5</v>
       </c>
       <c r="I8" t="n">
         <v>1275</v>
